--- a/xlsx/FR/tax_transfers_win_lose_FR.xlsx
+++ b/xlsx/FR/tax_transfers_win_lose_FR.xlsx
@@ -12,30 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">The middle class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-income earners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your household financially</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those living in rural areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income earners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither win nor lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win a lot</t>
   </si>
 </sst>
 </file>
@@ -380,61 +389,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.166054740143245</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.275151024850446</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.139200007464588</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.172487624466526</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0433948612414448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.375320563169884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.311397529803627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.311330703050941</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.314775806159927</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.117845338636281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.282559369049151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.224029771616066</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.359617726641581</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.313054839097405</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.540500118146635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.158789077765243</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.164675666922519</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.167302964355727</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.162556048890525</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.20655083497712</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0172762498724763</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.024746006807342</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0225485984871627</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.037125681385617</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0917088469985187</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/tax_transfers_win_lose_FR.xlsx
+++ b/xlsx/FR/tax_transfers_win_lose_FR.xlsx
@@ -17,13 +17,13 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Your household financially</t>
+  </si>
+  <si>
     <t xml:space="preserve">The middle class</t>
   </si>
   <si>
     <t xml:space="preserve">Low-income earners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your household financially</t>
   </si>
   <si>
     <t xml:space="preserve">Those living in rural areas</t>
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.166054740143245</v>
+        <v>0.129198550088939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.275151024850446</v>
+        <v>0.152665482543402</v>
       </c>
       <c r="D2" t="n">
-        <v>0.139200007464588</v>
+        <v>0.261228746176889</v>
       </c>
       <c r="E2" t="n">
-        <v>0.172487624466526</v>
+        <v>0.164890412711768</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0433948612414448</v>
+        <v>0.0468560935053507</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.375320563169884</v>
+        <v>0.321556279560851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311397529803627</v>
+        <v>0.369763787319512</v>
       </c>
       <c r="D3" t="n">
-        <v>0.311330703050941</v>
+        <v>0.328693873503724</v>
       </c>
       <c r="E3" t="n">
-        <v>0.314775806159927</v>
+        <v>0.312713000918458</v>
       </c>
       <c r="F3" t="n">
-        <v>0.117845338636281</v>
+        <v>0.109334182006968</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.282559369049151</v>
+        <v>0.367855714463514</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224029771616066</v>
+        <v>0.292763977546396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.359617726641581</v>
+        <v>0.219458422408692</v>
       </c>
       <c r="E4" t="n">
-        <v>0.313054839097405</v>
+        <v>0.314309688468921</v>
       </c>
       <c r="F4" t="n">
-        <v>0.540500118146635</v>
+        <v>0.518767495035392</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.158789077765243</v>
+        <v>0.1506174511496</v>
       </c>
       <c r="C5" t="n">
-        <v>0.164675666922519</v>
+        <v>0.162940671594249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.167302964355727</v>
+        <v>0.153859117049115</v>
       </c>
       <c r="E5" t="n">
-        <v>0.162556048890525</v>
+        <v>0.170612756011562</v>
       </c>
       <c r="F5" t="n">
-        <v>0.20655083497712</v>
+        <v>0.223818058728803</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0172762498724763</v>
+        <v>0.0307720047370961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.024746006807342</v>
+        <v>0.0218660809964412</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0225485984871627</v>
+        <v>0.0367598408615806</v>
       </c>
       <c r="E6" t="n">
-        <v>0.037125681385617</v>
+        <v>0.0374741418892897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0917088469985187</v>
+        <v>0.101224170723486</v>
       </c>
     </row>
   </sheetData>
